--- a/presicion_analisis_Xception.xlsx
+++ b/presicion_analisis_Xception.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS CORDERO\Desktop\ToG_pretrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B3973-D4F9-4A3F-9E2E-32CF173CEE8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F2055-65BE-4910-B22A-559AB7E425F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
   </bookViews>
   <sheets>
-    <sheet name="6Exception0.0004" sheetId="1" r:id="rId1"/>
-    <sheet name="6Exception0.0008" sheetId="2" r:id="rId2"/>
-    <sheet name="6Exception0.00009" sheetId="3" r:id="rId3"/>
-    <sheet name="6Exception0.0005" sheetId="4" r:id="rId4"/>
-    <sheet name="6Exception0.0003" sheetId="5" r:id="rId5"/>
-    <sheet name="63Exception0.0004" sheetId="6" r:id="rId6"/>
+    <sheet name="6Exception0.00004" sheetId="1" r:id="rId1"/>
+    <sheet name="6Exception0.00008" sheetId="2" r:id="rId2"/>
+    <sheet name="6Exception0.000009" sheetId="3" r:id="rId3"/>
+    <sheet name="6Exception0.00005" sheetId="4" r:id="rId4"/>
+    <sheet name="6Exception0.00003" sheetId="5" r:id="rId5"/>
+    <sheet name="63Exception0.00004" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -793,7 +793,7 @@
   <dimension ref="H10:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/presicion_analisis_Xception.xlsx
+++ b/presicion_analisis_Xception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS CORDERO\Desktop\ToG_pretrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F2055-65BE-4910-B22A-559AB7E425F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DE898-45F1-4935-AB5E-33EA65A7F283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
   </bookViews>
   <sheets>
     <sheet name="6Exception0.00004" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="6Exception0.00005" sheetId="4" r:id="rId4"/>
     <sheet name="6Exception0.00003" sheetId="5" r:id="rId5"/>
     <sheet name="63Exception0.00004" sheetId="6" r:id="rId6"/>
+    <sheet name="6Exception0.00004_No_Reduce" sheetId="8" r:id="rId7"/>
+    <sheet name="6Exception0.00004_Reduce" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -377,6 +379,192 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="4028571" cy="5428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170933</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF6298F-EC44-4B2B-8CBC-D80E8197B8AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4133333" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C614C65-FE28-476A-9D05-CD1DDA4BD468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4754880" y="0"/>
+          <a:ext cx="3990476" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>715794</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6597A8-4A89-4FDA-A4EB-B764D2C05B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3885714" cy="2647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189981</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D18799-3FDE-4451-9BC2-CD7BEF6F2E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4754880" y="0"/>
+          <a:ext cx="4152381" cy="2685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616745F2-0F37-485E-B4D6-07F61AF77D32}">
   <dimension ref="H10:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -807,4 +995,34 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263E429E-5CC4-4CFF-ACB6-B75416455E73}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83880859-24ED-41B6-9BF4-8B4157BBFCBC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/presicion_analisis_Xception.xlsx
+++ b/presicion_analisis_Xception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS CORDERO\Desktop\ToG_pretrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DE898-45F1-4935-AB5E-33EA65A7F283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98902F-2E88-4747-8E80-6446A094DE43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
   </bookViews>
   <sheets>
     <sheet name="6Exception0.00004" sheetId="1" r:id="rId1"/>
@@ -347,21 +347,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66171</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>125051</xdr:rowOff>
+      <xdr:colOff>151887</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152064</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D723CEC7-C30C-445A-B045-DFD2CB5F195E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538772AC-8587-49D0-A17C-3B638395CFC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -377,8 +377,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4028571" cy="5428571"/>
+          <a:off x="0" y="542925"/>
+          <a:ext cx="4104762" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66173</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D70F17-5620-4E78-87B9-3D0E52427A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="542925"/>
+          <a:ext cx="4019048" cy="2761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,15 +1022,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616745F2-0F37-485E-B4D6-07F61AF77D32}">
-  <dimension ref="H10:J10"/>
+  <dimension ref="F9:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -1001,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263E429E-5CC4-4CFF-ACB6-B75416455E73}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/presicion_analisis_Xception.xlsx
+++ b/presicion_analisis_Xception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS CORDERO\Desktop\ToG_pretrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98902F-2E88-4747-8E80-6446A094DE43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA02BBC-6B9B-4C40-BFD9-58C4198B13B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{ABC54316-D9C0-4881-9B1E-066589C50761}"/>
   </bookViews>
   <sheets>
     <sheet name="6Exception0.00004" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="6Exception0.000009" sheetId="3" r:id="rId3"/>
     <sheet name="6Exception0.00005" sheetId="4" r:id="rId4"/>
     <sheet name="6Exception0.00003" sheetId="5" r:id="rId5"/>
-    <sheet name="63Exception0.00004" sheetId="6" r:id="rId6"/>
+    <sheet name="63Exception0.00004_Reduce" sheetId="6" r:id="rId6"/>
     <sheet name="6Exception0.00004_No_Reduce" sheetId="8" r:id="rId7"/>
     <sheet name="6Exception0.00004_Reduce" sheetId="7" r:id="rId8"/>
+    <sheet name="63Exception0.00004" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -609,6 +610,99 @@
         <a:xfrm>
           <a:off x="4754880" y="0"/>
           <a:ext cx="4152381" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666173</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8207BBB6-77DD-4E96-850B-E784ABF3CDAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4619048" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523315</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D16A395-7DB3-42E7-B661-1CED90C31915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="0"/>
+          <a:ext cx="4476190" cy="3190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616745F2-0F37-485E-B4D6-07F61AF77D32}">
   <dimension ref="F9:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -1072,4 +1166,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0E415D-FA44-449A-8813-57F07FBA7DE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>